--- a/teaching/traditional_assets/database/data/kenya/kenya_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.067</v>
+        <v>0.07915</v>
       </c>
       <c r="E2">
-        <v>-0.01355000000000001</v>
+        <v>-0.08505</v>
       </c>
       <c r="G2">
-        <v>0.05977993527508091</v>
+        <v>0.125056709125807</v>
       </c>
       <c r="H2">
-        <v>0.05977993527508091</v>
+        <v>0.125056709125807</v>
       </c>
       <c r="I2">
-        <v>0.05173309206006046</v>
+        <v>0.04660617693247251</v>
       </c>
       <c r="J2">
-        <v>0.03753577553013703</v>
+        <v>0.04331137116494876</v>
       </c>
       <c r="K2">
-        <v>28.878</v>
+        <v>8.042999999999999</v>
       </c>
       <c r="L2">
-        <v>0.03738252427184466</v>
+        <v>0.01403419996510208</v>
       </c>
       <c r="M2">
-        <v>5.9445</v>
+        <v>2.614</v>
       </c>
       <c r="N2">
-        <v>0.009924040066777962</v>
+        <v>0.01019103313840156</v>
       </c>
       <c r="O2">
-        <v>0.2058487429877415</v>
+        <v>0.3250031082929256</v>
       </c>
       <c r="P2">
-        <v>5.9445</v>
+        <v>2.614</v>
       </c>
       <c r="Q2">
-        <v>0.009924040066777962</v>
+        <v>0.01019103313840156</v>
       </c>
       <c r="R2">
-        <v>0.2058487429877415</v>
+        <v>0.3250031082929256</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>215.5</v>
+        <v>77.86999999999999</v>
       </c>
       <c r="V2">
-        <v>0.3597662771285476</v>
+        <v>0.3035867446393762</v>
       </c>
       <c r="W2">
-        <v>0.05000988950493492</v>
+        <v>0.009347653142402546</v>
       </c>
       <c r="X2">
-        <v>0.07888267520806368</v>
+        <v>0.08428988055633094</v>
       </c>
       <c r="Y2">
-        <v>-0.02887278570312876</v>
+        <v>-0.07494222741392839</v>
       </c>
       <c r="Z2">
-        <v>1.575900471016552</v>
+        <v>1.430961298377029</v>
       </c>
       <c r="AA2">
-        <v>0.1010157998706739</v>
+        <v>0.03752860411899313</v>
       </c>
       <c r="AB2">
-        <v>0.07723578146588345</v>
+        <v>0.07928190378314826</v>
       </c>
       <c r="AC2">
-        <v>0.02151465929480102</v>
+        <v>-0.04175329966415512</v>
       </c>
       <c r="AD2">
-        <v>71.40000000000001</v>
+        <v>67.229</v>
       </c>
       <c r="AE2">
-        <v>6.335931918016489</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>77.73593191801649</v>
+        <v>67.229</v>
       </c>
       <c r="AG2">
-        <v>-137.7640680819835</v>
+        <v>-10.64099999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1148689292996398</v>
+        <v>0.2076706133834164</v>
       </c>
       <c r="AI2">
-        <v>0.1003386169601884</v>
+        <v>0.1485956912576338</v>
       </c>
       <c r="AJ2">
-        <v>-0.2986845962089327</v>
+        <v>-0.04328090490891117</v>
       </c>
       <c r="AK2">
-        <v>-0.2463433771315317</v>
+        <v>-0.02840940946553144</v>
       </c>
       <c r="AL2">
-        <v>10.62</v>
+        <v>3.128</v>
       </c>
       <c r="AM2">
-        <v>10.62</v>
+        <v>2.808</v>
       </c>
       <c r="AN2">
-        <v>1.508525068137162</v>
+        <v>1.909914772727273</v>
       </c>
       <c r="AO2">
-        <v>3.691148775894538</v>
+        <v>8.539002557544755</v>
       </c>
       <c r="AP2">
-        <v>-2.910651963448554</v>
+        <v>-0.3023011363636361</v>
       </c>
       <c r="AQ2">
-        <v>3.691148775894538</v>
+        <v>9.51210826210826</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0471</v>
+        <v>0.0563</v>
       </c>
       <c r="E3">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="G3">
-        <v>0.0996845425867508</v>
+        <v>0.12</v>
       </c>
       <c r="H3">
-        <v>0.0996845425867508</v>
+        <v>0.12</v>
       </c>
       <c r="I3">
-        <v>0.1072937323598244</v>
+        <v>0.2085714285714285</v>
       </c>
       <c r="J3">
-        <v>0.06570463800701627</v>
+        <v>0.1643367976043685</v>
       </c>
       <c r="K3">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="L3">
-        <v>0.06319663512092534</v>
+        <v>0.05733333333333333</v>
       </c>
       <c r="M3">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="N3">
-        <v>0.04789762340036563</v>
+        <v>0.06640211640211641</v>
       </c>
       <c r="O3">
-        <v>0.4359400998336107</v>
+        <v>0.4169435215946844</v>
       </c>
       <c r="P3">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="Q3">
-        <v>0.04789762340036563</v>
+        <v>0.06640211640211641</v>
       </c>
       <c r="R3">
-        <v>0.4359400998336107</v>
+        <v>0.4169435215946844</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>43.3</v>
+        <v>55.9</v>
       </c>
       <c r="V3">
-        <v>0.7915904936014624</v>
+        <v>1.478835978835979</v>
       </c>
       <c r="W3">
-        <v>0.08684971098265895</v>
+        <v>0.07984084880636604</v>
       </c>
       <c r="X3">
-        <v>0.07754439899992176</v>
+        <v>0.07674237486610373</v>
       </c>
       <c r="Y3">
-        <v>0.009305311982737194</v>
+        <v>0.003098473940262303</v>
       </c>
       <c r="Z3">
-        <v>4.105006982862103</v>
+        <v>5.303030303030301</v>
       </c>
       <c r="AA3">
-        <v>0.2697179978252285</v>
+        <v>0.8714830175989234</v>
       </c>
       <c r="AB3">
-        <v>0.0768940843377514</v>
+        <v>0.0762763870143294</v>
       </c>
       <c r="AC3">
-        <v>0.1928239134874771</v>
+        <v>0.7952066305845941</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.829</v>
       </c>
       <c r="AE3">
-        <v>1.966830262903503</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.966830262903503</v>
+        <v>0.829</v>
       </c>
       <c r="AG3">
-        <v>-41.3331697370965</v>
+        <v>-55.071</v>
       </c>
       <c r="AH3">
-        <v>0.0347086691416914</v>
+        <v>0.02146056071863108</v>
       </c>
       <c r="AI3">
-        <v>0.02450364934632909</v>
+        <v>0.01041077999221389</v>
       </c>
       <c r="AJ3">
-        <v>-3.09221924152108</v>
+        <v>3.188639916623241</v>
       </c>
       <c r="AK3">
-        <v>-1.11811506269648</v>
+        <v>-2.320831050613174</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.03700892857142857</v>
+      </c>
+      <c r="AO3">
+        <v>171.09375</v>
       </c>
       <c r="AP3">
-        <v>-3.75858595408716</v>
+        <v>-2.458526785714286</v>
+      </c>
+      <c r="AQ3">
+        <v>171.09375</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jubilee Holdings Limited (NASE:JUB)</t>
+          <t>Britam Holdings Plc (NASE:BRIT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,115 +859,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.067</v>
+        <v>0.102</v>
       </c>
       <c r="E4">
-        <v>0.08289999999999999</v>
+        <v>-0.0801</v>
       </c>
       <c r="G4">
-        <v>0.1470588235294118</v>
+        <v>0.1864352298296368</v>
       </c>
       <c r="H4">
-        <v>0.1470588235294118</v>
+        <v>0.1864352298296368</v>
       </c>
       <c r="I4">
-        <v>0.1304380182235726</v>
+        <v>0.03162970106075217</v>
       </c>
       <c r="J4">
-        <v>0.1030308081688142</v>
+        <v>0.03162970106075217</v>
       </c>
       <c r="K4">
-        <v>36.9</v>
+        <v>2.35</v>
       </c>
       <c r="L4">
-        <v>0.1409472880061115</v>
+        <v>0.007553841208614593</v>
       </c>
       <c r="M4">
-        <v>0.709</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.002824701195219123</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.01921409214092141</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.709</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.002824701195219123</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.01921409214092141</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>154.7</v>
+        <v>18.4</v>
       </c>
       <c r="V4">
-        <v>0.6163346613545816</v>
+        <v>0.1097197376267144</v>
       </c>
       <c r="W4">
-        <v>0.1517269736842105</v>
+        <v>0.009347653142402546</v>
       </c>
       <c r="X4">
-        <v>0.076162993219342</v>
+        <v>0.08428988055633094</v>
       </c>
       <c r="Y4">
-        <v>0.07556398046486854</v>
+        <v>-0.07494222741392839</v>
       </c>
       <c r="Z4">
-        <v>1.805247896583617</v>
+        <v>1.186498855835241</v>
       </c>
       <c r="AA4">
-        <v>0.1859961497300619</v>
+        <v>0.03752860411899313</v>
       </c>
       <c r="AB4">
-        <v>0.07614078283180628</v>
+        <v>0.07928190378314826</v>
       </c>
       <c r="AC4">
-        <v>0.1098553668982556</v>
+        <v>-0.04175329966415512</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="AE4">
-        <v>0.3216341453434275</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.3216341453434275</v>
+        <v>30.9</v>
       </c>
       <c r="AG4">
-        <v>-154.3783658546566</v>
+        <v>12.5</v>
       </c>
       <c r="AH4">
-        <v>0.001279771025034085</v>
+        <v>0.1555891238670695</v>
       </c>
       <c r="AI4">
-        <v>0.001104430810188043</v>
+        <v>0.1158170914542729</v>
       </c>
       <c r="AJ4">
-        <v>-1.597761901050362</v>
+        <v>0.06936736958934518</v>
       </c>
       <c r="AK4">
-        <v>-1.130797816925503</v>
+        <v>0.05032206119162641</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.4140625</v>
+      </c>
+      <c r="AO4">
+        <v>3.28</v>
       </c>
       <c r="AP4">
-        <v>-4.384129891081605</v>
+        <v>0.9765625</v>
+      </c>
+      <c r="AQ4">
+        <v>3.28</v>
       </c>
     </row>
     <row r="5">
@@ -981,40 +990,40 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.06397515527950311</v>
+        <v>0.006815286624203822</v>
       </c>
       <c r="H5">
-        <v>0.06397515527950311</v>
+        <v>0.006815286624203822</v>
       </c>
       <c r="I5">
-        <v>0.02400205065955984</v>
+        <v>-0.03203821656050956</v>
       </c>
       <c r="J5">
-        <v>0.01200102532977992</v>
+        <v>-0.03203821656050956</v>
       </c>
       <c r="K5">
-        <v>0.968</v>
+        <v>-0.327</v>
       </c>
       <c r="L5">
-        <v>0.006012422360248447</v>
+        <v>-0.002082802547770701</v>
       </c>
       <c r="M5">
-        <v>2.6155</v>
+        <v>0.104</v>
       </c>
       <c r="N5">
-        <v>0.03779624277456647</v>
+        <v>0.00203921568627451</v>
       </c>
       <c r="O5">
-        <v>2.701962809917355</v>
+        <v>-0.3180428134556575</v>
       </c>
       <c r="P5">
-        <v>2.6155</v>
+        <v>0.104</v>
       </c>
       <c r="Q5">
-        <v>0.03779624277456647</v>
+        <v>0.00203921568627451</v>
       </c>
       <c r="R5">
-        <v>2.701962809917355</v>
+        <v>-0.3180428134556575</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1023,201 +1032,64 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>7.2</v>
+        <v>3.57</v>
       </c>
       <c r="V5">
-        <v>0.1040462427745665</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="W5">
-        <v>0.01317006802721088</v>
+        <v>-0.004336870026525199</v>
       </c>
       <c r="X5">
-        <v>0.1062401931089764</v>
+        <v>0.10808743258955</v>
       </c>
       <c r="Y5">
-        <v>-0.09307012508176554</v>
+        <v>-0.1124243026160752</v>
       </c>
       <c r="Z5">
-        <v>1.336173332748063</v>
+        <v>1.324894514767933</v>
       </c>
       <c r="AA5">
-        <v>0.01603545001128595</v>
+        <v>-0.04244725738396625</v>
       </c>
       <c r="AB5">
-        <v>0.08286149831993954</v>
+        <v>0.08321496599142086</v>
       </c>
       <c r="AC5">
-        <v>-0.06682604830865359</v>
+        <v>-0.1256622233753871</v>
       </c>
       <c r="AD5">
-        <v>50.3</v>
+        <v>35.5</v>
       </c>
       <c r="AE5">
-        <v>2.033349219054327</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>52.33334921905433</v>
+        <v>35.5</v>
       </c>
       <c r="AG5">
-        <v>45.13334921905432</v>
+        <v>31.93</v>
       </c>
       <c r="AH5">
-        <v>0.4306089608764716</v>
+        <v>0.4104046242774567</v>
       </c>
       <c r="AI5">
-        <v>0.4097077978383394</v>
+        <v>0.3349056603773585</v>
       </c>
       <c r="AJ5">
-        <v>0.3947522706833518</v>
+        <v>0.385023513806825</v>
       </c>
       <c r="AK5">
-        <v>0.3744469850997842</v>
+        <v>0.3117250805428097</v>
       </c>
       <c r="AL5">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>6.37</v>
-      </c>
-      <c r="AN5">
-        <v>8.367992014639826</v>
-      </c>
-      <c r="AO5">
-        <v>0.5745682888540031</v>
-      </c>
-      <c r="AP5">
-        <v>7.508459361013862</v>
+        <v>-0.32</v>
       </c>
       <c r="AQ5">
-        <v>0.5745682888540031</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Britam Holdings Plc (NASE:BRIT)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.09699999999999999</v>
-      </c>
-      <c r="G6">
-        <v>-0.04752553024351924</v>
-      </c>
-      <c r="H6">
-        <v>-0.04752553024351924</v>
-      </c>
-      <c r="I6">
-        <v>-0.03241486118673623</v>
-      </c>
-      <c r="J6">
-        <v>-0.03241486118673623</v>
-      </c>
-      <c r="K6">
-        <v>-15</v>
-      </c>
-      <c r="L6">
-        <v>-0.0589159465828751</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>10.3</v>
-      </c>
-      <c r="V6">
-        <v>0.04596162427487729</v>
-      </c>
-      <c r="W6">
-        <v>-0.06846188954815154</v>
-      </c>
-      <c r="X6">
-        <v>0.0802209514162056</v>
-      </c>
-      <c r="Y6">
-        <v>-0.1486828409643571</v>
-      </c>
-      <c r="Z6">
-        <v>1.263435049412767</v>
-      </c>
-      <c r="AA6">
-        <v>-0.04095407174517208</v>
-      </c>
-      <c r="AB6">
-        <v>0.07757747859401548</v>
-      </c>
-      <c r="AC6">
-        <v>-0.1185315503391876</v>
-      </c>
-      <c r="AD6">
-        <v>21.1</v>
-      </c>
-      <c r="AE6">
-        <v>2.014118290715231</v>
-      </c>
-      <c r="AF6">
-        <v>23.11411829071523</v>
-      </c>
-      <c r="AG6">
-        <v>12.81411829071523</v>
-      </c>
-      <c r="AH6">
-        <v>0.09349837481180517</v>
-      </c>
-      <c r="AI6">
-        <v>0.08389449671078497</v>
-      </c>
-      <c r="AJ6">
-        <v>0.05408760939688339</v>
-      </c>
-      <c r="AK6">
-        <v>0.04831612424444538</v>
-      </c>
-      <c r="AL6">
-        <v>4.25</v>
-      </c>
-      <c r="AM6">
-        <v>4.25</v>
-      </c>
-      <c r="AN6">
-        <v>-4.314928425357873</v>
-      </c>
-      <c r="AO6">
-        <v>-2.084705882352941</v>
-      </c>
-      <c r="AP6">
-        <v>-2.620474088080824</v>
-      </c>
-      <c r="AQ6">
-        <v>-2.084705882352941</v>
+        <v>15.71875</v>
       </c>
     </row>
   </sheetData>
